--- a/AfDD_DDAf_2021_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2021_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2021_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>High income (no LAC)</t>
   </si>
   <si>
-    <t>Pays à revenu élévé (LAC exclus)</t>
+    <t>Pays à revenu élévé (ALC exclus)</t>
   </si>
   <si>
     <t>201</t>
@@ -339,7 +339,7 @@
     <t>440</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Pays à revenu élevé</t>
@@ -5033,6 +5033,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C245"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AfDD_DDAf_2021_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2021_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2021_CntryPaysCodes" sheetId="1" r:id="rId1"/>
